--- a/tut05/output/0501CS31.xlsx
+++ b/tut05/output/0501CS31.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.346938775510204</v>
+        <v>6.35</v>
       </c>
       <c r="C6" t="n">
-        <v>5.863636363636363</v>
+        <v>5.86</v>
       </c>
       <c r="D6" t="n">
-        <v>5.930232558139535</v>
+        <v>5.93</v>
       </c>
       <c r="E6" t="n">
-        <v>6.212765957446808</v>
+        <v>6.21</v>
       </c>
       <c r="F6" t="n">
-        <v>5.857142857142857</v>
+        <v>5.86</v>
       </c>
       <c r="G6" t="n">
         <v>6.4</v>
       </c>
       <c r="H6" t="n">
-        <v>6.658536585365853</v>
+        <v>6.66</v>
       </c>
       <c r="I6" t="n">
         <v>7.1</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.346938775510204</v>
+        <v>6.35</v>
       </c>
       <c r="C8" t="n">
-        <v>6.118279569892473</v>
+        <v>6.12</v>
       </c>
       <c r="D8" t="n">
-        <v>6.058823529411764</v>
+        <v>6.06</v>
       </c>
       <c r="E8" t="n">
-        <v>6.098360655737705</v>
+        <v>6.1</v>
       </c>
       <c r="F8" t="n">
-        <v>6.053333333333334</v>
+        <v>6.05</v>
       </c>
       <c r="G8" t="n">
-        <v>6.105660377358491</v>
+        <v>6.11</v>
       </c>
       <c r="H8" t="n">
-        <v>6.179738562091504</v>
+        <v>6.18</v>
       </c>
       <c r="I8" t="n">
-        <v>6.286127167630058</v>
+        <v>6.29</v>
       </c>
     </row>
   </sheetData>
